--- a/FileFinal.xlsx
+++ b/FileFinal.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\CNPMNC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1E1645-99F0-449E-9F45-B05694644E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E44B38-B7D9-4DF6-BF43-EC8930D315C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4356" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{0EB5077D-85B7-492E-A002-4D34909CB897}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{0EB5077D-85B7-492E-A002-4D34909CB897}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
-    <sheet name="Product backlog" sheetId="1" r:id="rId2"/>
-    <sheet name="Team" sheetId="4" r:id="rId3"/>
+    <sheet name="Team" sheetId="4" r:id="rId2"/>
+    <sheet name="Product backlog" sheetId="1" r:id="rId3"/>
+    <sheet name="Sprint backlog" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
   <si>
     <t>Online Test Manager Project - PRODUCT BACKLOG</t>
   </si>
@@ -146,9 +147,6 @@
     <t>Nguyễn Phạm Hữu Tài</t>
   </si>
   <si>
-    <t>Tainguyen</t>
-  </si>
-  <si>
     <t>Lê Hoài Thanh Huy</t>
   </si>
   <si>
@@ -168,13 +166,52 @@
   </si>
   <si>
     <t>lorenkid107</t>
+  </si>
+  <si>
+    <t>Name Of Dev</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Endate</t>
+  </si>
+  <si>
+    <t>Act Start Date</t>
+  </si>
+  <si>
+    <t>ActEndate</t>
+  </si>
+  <si>
+    <t>Act Points</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Hữu Tài</t>
+  </si>
+  <si>
+    <t>Tấn Tài</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huy </t>
+  </si>
+  <si>
+    <t>Online Test Manager Project - SPRINT BACKLOG</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +229,12 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -222,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -384,11 +427,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -421,6 +488,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B154BFF-EE5B-420F-9401-F8BFA620EABD}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -998,299 +1086,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA59123E-F6D6-4AA4-91DA-09953FDF4053}">
-  <dimension ref="A1:C32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="42.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6">
-        <f>SUM(C6:C32)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
-        <v>1</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>3</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>4</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>5</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>6</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>7</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>8</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>9</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>10</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>11</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>12</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>13</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>14</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>15</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <v>16</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
-        <v>17</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
-        <v>18</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
-        <v>19</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="16"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2103995B-9A41-405B-98DA-B93B3ED2A240}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E6" sqref="E6:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1339,13 +1139,13 @@
         <v>33</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="19"/>
     </row>
@@ -1354,16 +1154,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>36</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="19"/>
     </row>
@@ -1375,13 +1175,13 @@
         <v>33</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="19"/>
     </row>
@@ -1390,16 +1190,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="19"/>
     </row>
@@ -1408,16 +1208,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>36</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="19"/>
     </row>
@@ -1427,4 +1227,702 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA59123E-F6D6-4AA4-91DA-09953FDF4053}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="42.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6">
+        <f>SUM(C6:C32)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>7</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>8</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>9</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>10</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>11</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>12</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>13</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>14</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>15</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>16</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>17</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>18</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="30">
+        <v>19</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="16"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168D1EFE-A920-4166-B36C-CE92F705909C}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="49.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19">
+        <f>SUM(C7:C20)</f>
+        <v>51</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>1</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="19">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>2</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="19">
+        <v>3</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>3</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="19">
+        <v>3</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <v>4</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="19">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
+        <v>5</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="19">
+        <v>3</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="28">
+        <v>6</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
+        <v>7</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="19">
+        <v>4</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
+        <v>8</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="19">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
+        <v>9</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="19">
+        <v>6</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <v>10</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="19">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
+        <v>11</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="19">
+        <v>5</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
+        <v>12</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
+        <v>13</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="19">
+        <v>6</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A13:J13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FileFinal.xlsx
+++ b/FileFinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\CNPMNC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E44B38-B7D9-4DF6-BF43-EC8930D315C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8D5884-9B20-411C-B399-FFE4D1EFB6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{0EB5077D-85B7-492E-A002-4D34909CB897}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Product backlog" sheetId="1" r:id="rId3"/>
     <sheet name="Sprint backlog" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>Online Test Manager Project - PRODUCT BACKLOG</t>
   </si>
@@ -156,18 +156,12 @@
     <t>Nguyễn Phan Tấn Tài</t>
   </si>
   <si>
-    <t>Tainguyenphan</t>
-  </si>
-  <si>
     <t>16/2/2023</t>
   </si>
   <si>
     <t>17/2/2023</t>
   </si>
   <si>
-    <t>lorenkid107</t>
-  </si>
-  <si>
     <t>Name Of Dev</t>
   </si>
   <si>
@@ -192,19 +186,52 @@
     <t>Sprint 1</t>
   </si>
   <si>
-    <t>Hữu Tài</t>
-  </si>
-  <si>
-    <t>Tấn Tài</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huy </t>
-  </si>
-  <si>
     <t>Online Test Manager Project - SPRINT BACKLOG</t>
   </si>
   <si>
     <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>View Homepage(Student,Teacher,SystemManagement)</t>
+  </si>
+  <si>
+    <t>Login(SystemManagement)</t>
+  </si>
+  <si>
+    <t>HuyLe</t>
+  </si>
+  <si>
+    <t>TanTai</t>
+  </si>
+  <si>
+    <t>HuuTai</t>
+  </si>
+  <si>
+    <t>Logout(SystemManagement)</t>
+  </si>
+  <si>
+    <t>Login(Student,Teacher)</t>
+  </si>
+  <si>
+    <t>Logout(Student,Teacher)</t>
+  </si>
+  <si>
+    <t>Create exam questions(Teacher)</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Test(Student)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test  </t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Duy</t>
+  </si>
+  <si>
+    <t>DuyThanh</t>
   </si>
 </sst>
 </file>
@@ -265,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -440,22 +467,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -483,15 +499,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -499,17 +506,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,244 +862,244 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1087,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2103995B-9A41-405B-98DA-B93B3ED2A240}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1102,14 +1126,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -1139,13 +1163,13 @@
         <v>33</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="19"/>
     </row>
@@ -1163,7 +1187,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="19"/>
     </row>
@@ -1175,31 +1199,31 @@
         <v>33</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="19"/>
     </row>
@@ -1217,9 +1241,27 @@
         <v>32</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="32">
+        <v>6</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1233,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA59123E-F6D6-4AA4-91DA-09953FDF4053}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1263,7 +1305,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="6">
         <f>SUM(C6:C32)</f>
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1329,43 +1371,43 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="34">
         <v>6</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="32">
         <v>6</v>
       </c>
-      <c r="C10" s="11">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>7</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11">
-        <v>2</v>
-      </c>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>8</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>13</v>
+      <c r="B13" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="C13" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1373,10 +1415,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1384,7 +1426,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="11">
         <v>3</v>
@@ -1395,39 +1437,39 @@
         <v>11</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>12</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C17" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>12</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="11">
-        <v>5</v>
-      </c>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>13</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>15</v>
+      <c r="B19" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="C19" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1435,18 +1477,18 @@
         <v>14</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>15</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>17</v>
+      <c r="B21" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="C21" s="11">
         <v>5</v>
@@ -1456,8 +1498,8 @@
       <c r="A22" s="10">
         <v>16</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>18</v>
+      <c r="B22" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C22" s="11">
         <v>5</v>
@@ -1467,32 +1509,43 @@
       <c r="A23" s="10">
         <v>17</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>19</v>
+      <c r="B23" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="C23" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>18</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>19</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C25" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="30">
-        <v>19</v>
-      </c>
-      <c r="B25" s="31" t="s">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>20</v>
+      </c>
+      <c r="B26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C26" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1521,10 +1574,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168D1EFE-A920-4166-B36C-CE92F705909C}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1537,74 +1590,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="A1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="25"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="G4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="H4" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="I4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="J4" s="23" t="s">
         <v>45</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19">
-        <f>SUM(C7:C20)</f>
-        <v>51</v>
+        <f>SUM(C7:C24)</f>
+        <v>60</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -1615,33 +1668,35 @@
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="A6" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="28">
+      <c r="A7" s="24">
         <v>1</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>5</v>
+      <c r="B7" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="C7" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="20"/>
+        <v>51</v>
+      </c>
+      <c r="E7" s="20">
+        <v>45171</v>
+      </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -1649,19 +1704,21 @@
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
+      <c r="A8" s="24">
         <v>2</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C8" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="20"/>
+        <v>52</v>
+      </c>
+      <c r="E8" s="20">
+        <v>45171</v>
+      </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
@@ -1669,19 +1726,21 @@
       <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
+      <c r="A9" s="24">
         <v>3</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>10</v>
+      <c r="B9" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="C9" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="20"/>
+        <v>52</v>
+      </c>
+      <c r="E9" s="20">
+        <v>45171</v>
+      </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
@@ -1689,19 +1748,21 @@
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
+      <c r="A10" s="24">
         <v>4</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>11</v>
+      <c r="B10" s="25" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="19">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="20">
+        <v>45171</v>
+      </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
@@ -1709,19 +1770,21 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
+      <c r="A11" s="24">
         <v>5</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>4</v>
+      <c r="B11" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="C11" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="20"/>
+        <v>53</v>
+      </c>
+      <c r="E11" s="20">
+        <v>45171</v>
+      </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
@@ -1729,19 +1792,21 @@
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
+      <c r="A12" s="24">
         <v>6</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>6</v>
+      <c r="B12" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="C12" s="19">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="20">
+        <v>45171</v>
+      </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -1749,53 +1814,57 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
+      <c r="A13" s="24">
+        <v>7</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="19">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="20">
+        <v>45171</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
-        <v>7</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="19">
-        <v>4</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="A14" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="A15" s="24">
         <v>8</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>7</v>
+      <c r="B15" s="31" t="s">
+        <v>55</v>
       </c>
       <c r="C15" s="19">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="20">
+        <v>45171</v>
+      </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
@@ -1803,19 +1872,21 @@
       <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+      <c r="A16" s="24">
         <v>9</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>15</v>
+      <c r="B16" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="E16" s="20">
+        <v>45171</v>
+      </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
@@ -1823,19 +1894,21 @@
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="A17" s="24">
         <v>10</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>16</v>
+      <c r="B17" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="19">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="20">
+        <v>45171</v>
+      </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -1846,16 +1919,18 @@
       <c r="A18" s="19">
         <v>11</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>17</v>
+      <c r="B18" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="C18" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="E18" s="20">
+        <v>45171</v>
+      </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
@@ -1866,16 +1941,18 @@
       <c r="A19" s="19">
         <v>12</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>18</v>
+      <c r="B19" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="C19" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="E19" s="20">
+        <v>45171</v>
+      </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
@@ -1883,45 +1960,127 @@
       <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+      <c r="A20" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="32">
         <v>13</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B21" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="19">
+        <v>4</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="20">
+        <v>45171</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="32">
+        <v>14</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C22" s="19">
         <v>6</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
+      <c r="D22" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="20">
+        <v>45171</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="32">
+        <v>15</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="19">
+        <v>6</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="20">
+        <v>45171</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="32">
+        <v>16</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="19">
+        <v>6</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="20">
+        <v>45171</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="32"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A21:J21"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FileFinal.xlsx
+++ b/FileFinal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\CNPMNC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\CNPMNC\CongNghePhanMemNC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8D5884-9B20-411C-B399-FFE4D1EFB6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAC85B4-2A8C-433B-BB8A-D0A0A369ACA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{0EB5077D-85B7-492E-A002-4D34909CB897}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{0EB5077D-85B7-492E-A002-4D34909CB897}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
   <si>
     <t>Online Test Manager Project - PRODUCT BACKLOG</t>
   </si>
@@ -192,12 +192,6 @@
     <t>Sprint 2</t>
   </si>
   <si>
-    <t>View Homepage(Student,Teacher,SystemManagement)</t>
-  </si>
-  <si>
-    <t>Login(SystemManagement)</t>
-  </si>
-  <si>
     <t>HuyLe</t>
   </si>
   <si>
@@ -207,15 +201,6 @@
     <t>HuuTai</t>
   </si>
   <si>
-    <t>Logout(SystemManagement)</t>
-  </si>
-  <si>
-    <t>Login(Student,Teacher)</t>
-  </si>
-  <si>
-    <t>Logout(Student,Teacher)</t>
-  </si>
-  <si>
     <t>Create exam questions(Teacher)</t>
   </si>
   <si>
@@ -232,6 +217,27 @@
   </si>
   <si>
     <t>DuyThanh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View Point </t>
+  </si>
+  <si>
+    <t>View Point</t>
+  </si>
+  <si>
+    <t>Point Managerment</t>
+  </si>
+  <si>
+    <t>Point Management</t>
+  </si>
+  <si>
+    <t>View Homepage</t>
+  </si>
+  <si>
+    <t>Phan Thi Ngoc Han</t>
+  </si>
+  <si>
+    <t>Teacher</t>
   </si>
 </sst>
 </file>
@@ -292,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -467,11 +473,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -519,21 +545,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1114,7 +1151,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,10 +1197,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>29</v>
@@ -1199,7 +1236,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>31</v>
@@ -1217,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>32</v>
@@ -1246,19 +1283,19 @@
       <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="32">
+      <c r="A9" s="19">
         <v>6</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="32" t="s">
+      <c r="B9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="20" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="19"/>
@@ -1275,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA59123E-F6D6-4AA4-91DA-09953FDF4053}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1305,7 +1342,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="6">
         <f>SUM(C6:C32)</f>
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1374,70 +1411,70 @@
       <c r="A10" s="34">
         <v>6</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="32">
+      <c r="B10" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="34">
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C12" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>8</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="11">
-        <v>2</v>
-      </c>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
-        <v>9</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="C14" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C15" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="11">
         <v>3</v>
@@ -1445,61 +1482,61 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
+        <v>11</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>12</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C18" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>13</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="11">
-        <v>5</v>
-      </c>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
-        <v>14</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="C20" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
+        <v>14</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="C21" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
+        <v>15</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>17</v>
       </c>
       <c r="C22" s="11">
         <v>5</v>
@@ -1507,10 +1544,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
+        <v>16</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="C23" s="11">
         <v>5</v>
@@ -1518,45 +1555,58 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
+        <v>17</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="C24" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
+        <v>18</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="C25" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>19</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C26" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
         <v>20</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B27" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="34">
         <v>6</v>
       </c>
-      <c r="C26" s="6">
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="37">
+        <v>21</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
@@ -1574,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168D1EFE-A920-4166-B36C-CE92F705909C}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1590,18 +1640,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
@@ -1656,8 +1706,8 @@
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19">
-        <f>SUM(C7:C24)</f>
-        <v>60</v>
+        <f>SUM(C7:C49)</f>
+        <v>66</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -1668,31 +1718,31 @@
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="24">
         <v>1</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C7" s="19">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="20">
         <v>45171</v>
@@ -1708,13 +1758,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C8" s="19">
         <v>2</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="20">
         <v>45171</v>
@@ -1736,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="20">
         <v>45171</v>
@@ -1752,20 +1802,20 @@
         <v>4</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C10" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E10" s="20">
         <v>45171</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
     </row>
@@ -1774,20 +1824,20 @@
         <v>5</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E11" s="20">
         <v>45171</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
     </row>
@@ -1796,20 +1846,20 @@
         <v>6</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E12" s="20">
         <v>45171</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
     </row>
@@ -1821,10 +1871,10 @@
         <v>54</v>
       </c>
       <c r="C13" s="19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" s="20">
         <v>45171</v>
@@ -1836,60 +1886,60 @@
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="24">
+        <v>8</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="20">
+        <v>45171</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="24">
-        <v>8</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="19">
-        <v>2</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="20">
-        <v>45171</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>9</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C16" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" s="20">
         <v>45171</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
     </row>
@@ -1898,13 +1948,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="19">
         <v>3</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20">
         <v>45171</v>
@@ -1916,39 +1966,39 @@
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+      <c r="A18" s="24">
         <v>11</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>11</v>
+      <c r="B18" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="C18" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="20">
         <v>45171</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="A19" s="24">
         <v>12</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C19" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="20">
         <v>45171</v>
@@ -1960,75 +2010,75 @@
       <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
+      <c r="A20" s="24">
+        <v>13</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="19">
+        <v>3</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="20">
+        <v>45171</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="32">
-        <v>13</v>
+      <c r="A21" s="24">
+        <v>14</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C21" s="19">
-        <v>4</v>
-      </c>
-      <c r="D21" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>51</v>
       </c>
       <c r="E21" s="20">
         <v>45171</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="32">
-        <v>14</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="19">
-        <v>6</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="20">
-        <v>45171</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="A22" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="32">
+      <c r="A23" s="19">
         <v>15</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="19">
-        <v>6</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>51</v>
+      <c r="B23" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="39">
+        <v>3</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="E23" s="20">
         <v>45171</v>
@@ -2040,17 +2090,17 @@
       <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="32">
+      <c r="A24" s="19">
         <v>16</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="19">
+      <c r="B24" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="39">
         <v>6</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E24" s="20">
         <v>45171</v>
@@ -2061,26 +2111,146 @@
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="32"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="32"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:J22"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
